--- a/画面設計/【画面設計】02_料理検索.xlsx
+++ b/画面設計/【画面設計】02_料理検索.xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="z0Mudevov3NZpPpP7ZJ1DA9XaZaMwM6Yc17EPL7yQiA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="+R6xS1BApQyOpArtI26Eexc7hIuM1oCnzcJrjUMyf/Q="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="156">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -89,6 +89,7 @@
   <si>
     <t>アプリ起動時にまず表示される画面、また、サイドメニュー（01_メニュー(サイドバー＆ヘッダー)）の「料理検索」からも呼ばれる画面。
 既に登録された料理を各条件に沿って、検索できる画面。（料理名のみで検索、指定した条件で検索、ランダムで１品検索）
+（検索自体は結果表示の画面で行われるので当画面では条件設定のみ）
 各指定はアコーディオン内のチェックボックスで複数指定、プルダウンで指定できるようになっている。</t>
   </si>
   <si>
@@ -116,19 +117,19 @@
     <t>(料理名)検索ボタンをクリック時</t>
   </si>
   <si>
-    <t>入力した料理名のみを検索条件にして、料理名で料理検索を行い、「03_料理検索結果」画面を開く。</t>
+    <t>入力した料理名とモード(1)を渡して「03_料理検索結果」画面を開く。</t>
   </si>
   <si>
     <t>(条件)検索ボタンをクリック時</t>
   </si>
   <si>
-    <t>入力した料理名以外の指定されたチェックボックス、プルダウンの内容を検索条件にして、料理検索を行い、「03_料理検索結果」画面を開く。</t>
+    <t>入力した複数の条件とモード(2)を渡して、「03_料理検索結果」画面を開く。</t>
   </si>
   <si>
     <t>ランダム料理検索ボタンをクリック時</t>
   </si>
   <si>
-    <t>料理レシピのテーブルより、ランダムに１件のみ料理検索を行い、「03_料理検索結果」画面を開く。</t>
+    <t>モード(3)を渡して、「03_料理検索結果」画面を開く。</t>
   </si>
   <si>
     <t>5.【フォーム情報】</t>
@@ -183,6 +184,9 @@
   </si>
   <si>
     <t>ボタン</t>
+  </si>
+  <si>
+    <t>入力した料理名のみを検索条件にして、料理名で料理検索を行い、「03_料理検索結果」画面を開く。</t>
   </si>
   <si>
     <t>カテゴリ指定</t>
@@ -394,15 +398,58 @@
     <t>（条件）検索</t>
   </si>
   <si>
+    <t>入力した料理名以外の指定されたチェックボックス、プルダウンの内容を検索条件にして、料理検索を行い、「03_料理検索結果」画面を開く。</t>
+  </si>
+  <si>
     <t>ランダム料理検索</t>
   </si>
   <si>
+    <t>料理レシピのテーブルより、ランダムに１件のみ料理検索を行い、「03_料理検索結果」画面を開く。</t>
+  </si>
+  <si>
     <t xml:space="preserve">レシピより、ランダムで１件検索する。
-（SELECT * FROM テーブル名 ORDER BY RAND() LIMIT 1;）
 </t>
   </si>
   <si>
     <t>1. 処理一覧</t>
+  </si>
+  <si>
+    <t>2. 処理詳細</t>
+  </si>
+  <si>
+    <t>2.1 (料理名)検索ボタンをクリック時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　(1)  入力した料理名を変数.料理名へ設定する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　(2)  変数.料理名とモード(1:レシピ名検索）を「03_料理検索結果」へ渡して、開く。</t>
+  </si>
+  <si>
+    <t>2.2 (条件)検索ボタンをクリック時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　(1)  選択した各条件を以下の各変数に設定する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　　　・変数.カテゴリID（複数）
+　　　　・変数.ジャンルID（複数）
+　　　　・変数.調理方法ID（複数）
+　　　　・変数.調理時間FROM
+　　　　・変数.調理時間TO
+　　　　・変数.難易度
+　　　　・変数.カロリーFROM
+　　　　・変数.カロリーTO
+　　　　・変数.アレルギーID（複数）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　(2)  (1)の全ての変数とモード(2:複数条件検索)を「03_料理検索結果」へ渡して、開く。</t>
+  </si>
+  <si>
+    <t>2.3 ランダム料理検索ボタンをクリック時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　(1)  モード(3:ランダム検索）を「03_料理検索結果」へ渡して、開く。</t>
   </si>
   <si>
     <t>・・・・・・</t>
@@ -1067,20 +1114,20 @@
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -5370,7 +5417,7 @@
         <v>53</v>
       </c>
       <c r="D86" s="46" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E86" s="41"/>
       <c r="F86" s="49"/>
@@ -5397,13 +5444,13 @@
     <row r="87" ht="23.25" customHeight="1">
       <c r="A87" s="41"/>
       <c r="B87" s="50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C87" s="51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D87" s="52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E87" s="41"/>
       <c r="F87" s="49"/>
@@ -5430,7 +5477,7 @@
     <row r="88" ht="18.75" customHeight="1">
       <c r="A88" s="41"/>
       <c r="B88" s="53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C88" s="21"/>
       <c r="D88" s="22"/>
@@ -5459,13 +5506,13 @@
     <row r="89" ht="24.75" customHeight="1">
       <c r="A89" s="41"/>
       <c r="B89" s="48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C89" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D89" s="46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E89" s="41"/>
       <c r="F89" s="49"/>
@@ -5492,26 +5539,26 @@
     <row r="90" ht="21.0" customHeight="1">
       <c r="A90" s="41"/>
       <c r="B90" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C90" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D90" s="54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E90" s="41"/>
       <c r="F90" s="42" t="s">
         <v>49</v>
       </c>
       <c r="G90" s="42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H90" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I90" s="42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J90" s="47"/>
       <c r="K90" s="24"/>
@@ -5533,13 +5580,13 @@
     <row r="91" ht="21.0" customHeight="1">
       <c r="A91" s="41"/>
       <c r="B91" s="55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C91" s="56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D91" s="57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E91" s="41"/>
       <c r="F91" s="49"/>
@@ -5566,7 +5613,7 @@
     <row r="92" ht="18.75" customHeight="1">
       <c r="A92" s="41"/>
       <c r="B92" s="58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C92" s="21"/>
       <c r="D92" s="22"/>
@@ -5595,13 +5642,13 @@
     <row r="93" ht="29.25" customHeight="1">
       <c r="A93" s="41"/>
       <c r="B93" s="48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C93" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D93" s="46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E93" s="41"/>
       <c r="F93" s="49"/>
@@ -5628,26 +5675,26 @@
     <row r="94" ht="21.0" customHeight="1">
       <c r="A94" s="41"/>
       <c r="B94" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C94" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D94" s="54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E94" s="41"/>
       <c r="F94" s="42" t="s">
         <v>49</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H94" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I94" s="42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J94" s="47"/>
       <c r="K94" s="24"/>
@@ -5669,13 +5716,13 @@
     <row r="95" ht="21.0" customHeight="1">
       <c r="A95" s="41"/>
       <c r="B95" s="59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C95" s="60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D95" s="61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E95" s="41"/>
       <c r="F95" s="49"/>
@@ -5702,7 +5749,7 @@
     <row r="96" ht="18.75" customHeight="1">
       <c r="A96" s="41"/>
       <c r="B96" s="62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C96" s="21"/>
       <c r="D96" s="22"/>
@@ -5731,13 +5778,13 @@
     <row r="97" ht="29.25" customHeight="1">
       <c r="A97" s="41"/>
       <c r="B97" s="48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C97" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D97" s="46" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E97" s="41"/>
       <c r="F97" s="49"/>
@@ -5764,26 +5811,26 @@
     <row r="98" ht="21.0" customHeight="1">
       <c r="A98" s="41"/>
       <c r="B98" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C98" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D98" s="54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E98" s="41"/>
       <c r="F98" s="42" t="s">
         <v>49</v>
       </c>
       <c r="G98" s="42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H98" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I98" s="42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J98" s="47"/>
       <c r="K98" s="24"/>
@@ -5805,13 +5852,13 @@
     <row r="99" ht="16.5" customHeight="1">
       <c r="A99" s="6"/>
       <c r="B99" s="63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C99" s="64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D99" s="65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E99" s="41"/>
       <c r="F99" s="49"/>
@@ -5838,7 +5885,7 @@
     <row r="100" ht="18.75" customHeight="1">
       <c r="A100" s="41"/>
       <c r="B100" s="66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C100" s="21"/>
       <c r="D100" s="22"/>
@@ -5867,13 +5914,13 @@
     <row r="101" ht="29.25" customHeight="1">
       <c r="A101" s="41"/>
       <c r="B101" s="48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C101" s="48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D101" s="46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E101" s="41"/>
       <c r="F101" s="49"/>
@@ -5900,29 +5947,29 @@
     <row r="102" ht="35.25" customHeight="1">
       <c r="A102" s="41"/>
       <c r="B102" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C102" s="48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D102" s="54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E102" s="41"/>
       <c r="F102" s="42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G102" s="42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H102" s="42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I102" s="42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J102" s="46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K102" s="24"/>
       <c r="L102" s="24"/>
@@ -5943,13 +5990,13 @@
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="6"/>
       <c r="B103" s="67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C103" s="68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D103" s="69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E103" s="41"/>
       <c r="F103" s="49"/>
@@ -5976,26 +6023,26 @@
     <row r="104" ht="33.75" customHeight="1">
       <c r="A104" s="6"/>
       <c r="B104" s="48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C104" s="70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D104" s="36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E104" s="41"/>
       <c r="F104" s="42" t="s">
         <v>49</v>
       </c>
       <c r="G104" s="42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H104" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I104" s="42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J104" s="47"/>
       <c r="K104" s="6"/>
@@ -6017,13 +6064,13 @@
     <row r="105" ht="16.5" customHeight="1">
       <c r="A105" s="6"/>
       <c r="B105" s="71" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C105" s="72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D105" s="73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E105" s="41"/>
       <c r="F105" s="49"/>
@@ -6050,29 +6097,29 @@
     <row r="106" ht="54.0" customHeight="1">
       <c r="A106" s="6"/>
       <c r="B106" s="48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C106" s="70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D106" s="36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E106" s="41"/>
       <c r="F106" s="42" t="s">
         <v>49</v>
       </c>
       <c r="G106" s="42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H106" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I106" s="42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J106" s="42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
@@ -6093,10 +6140,10 @@
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="6"/>
       <c r="B107" s="48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C107" s="70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D107" s="36"/>
       <c r="E107" s="41"/>
@@ -6124,29 +6171,29 @@
     <row r="108" ht="48.0" customHeight="1">
       <c r="A108" s="6"/>
       <c r="B108" s="48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C108" s="70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D108" s="36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E108" s="41"/>
       <c r="F108" s="42" t="s">
         <v>49</v>
       </c>
       <c r="G108" s="42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H108" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I108" s="42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J108" s="42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
@@ -6167,13 +6214,13 @@
     <row r="109" ht="16.5" customHeight="1">
       <c r="A109" s="6"/>
       <c r="B109" s="74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C109" s="75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D109" s="76" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E109" s="41"/>
       <c r="F109" s="49"/>
@@ -6200,29 +6247,29 @@
     <row r="110" ht="54.0" customHeight="1">
       <c r="A110" s="6"/>
       <c r="B110" s="48" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C110" s="70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D110" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E110" s="41"/>
       <c r="F110" s="42" t="s">
         <v>49</v>
       </c>
       <c r="G110" s="42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H110" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I110" s="42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J110" s="42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
@@ -6243,10 +6290,10 @@
     <row r="111" ht="16.5" customHeight="1">
       <c r="A111" s="6"/>
       <c r="B111" s="48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C111" s="70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D111" s="36"/>
       <c r="E111" s="41"/>
@@ -6274,29 +6321,29 @@
     <row r="112" ht="48.0" customHeight="1">
       <c r="A112" s="6"/>
       <c r="B112" s="48" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C112" s="70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D112" s="36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E112" s="41"/>
       <c r="F112" s="42" t="s">
         <v>49</v>
       </c>
       <c r="G112" s="42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H112" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I112" s="42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J112" s="42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
@@ -6317,29 +6364,29 @@
     <row r="113" ht="34.5" customHeight="1">
       <c r="A113" s="6"/>
       <c r="B113" s="77" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C113" s="78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D113" s="79" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E113" s="41"/>
       <c r="F113" s="42" t="s">
         <v>49</v>
       </c>
       <c r="G113" s="42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H113" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I113" s="42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J113" s="42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
@@ -6360,13 +6407,13 @@
     <row r="114" ht="51.0" customHeight="1">
       <c r="A114" s="6"/>
       <c r="B114" s="48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C114" s="42" t="s">
         <v>53</v>
       </c>
       <c r="D114" s="46" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="E114" s="41"/>
       <c r="F114" s="49"/>
@@ -6393,13 +6440,13 @@
     <row r="115" ht="40.5" customHeight="1">
       <c r="A115" s="6"/>
       <c r="B115" s="48" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C115" s="42" t="s">
         <v>53</v>
       </c>
       <c r="D115" s="46" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="E115" s="41"/>
       <c r="F115" s="42" t="s">
@@ -6409,7 +6456,7 @@
       <c r="H115" s="49"/>
       <c r="I115" s="49"/>
       <c r="J115" s="42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
@@ -29699,7 +29746,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="81"/>
       <c r="B4" s="81" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C4" s="81"/>
       <c r="D4" s="81"/>
@@ -29750,13 +29797,17 @@
       <c r="T5" s="81"/>
       <c r="U5" s="81"/>
     </row>
-    <row r="6" ht="41.25" customHeight="1">
+    <row r="6" ht="34.5" customHeight="1">
       <c r="A6" s="81"/>
       <c r="B6" s="84">
         <v>1.0</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="86"/>
+      <c r="C6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>31</v>
+      </c>
       <c r="E6" s="22"/>
       <c r="F6" s="81"/>
       <c r="G6" s="81"/>
@@ -29775,13 +29826,17 @@
       <c r="T6" s="81"/>
       <c r="U6" s="81"/>
     </row>
-    <row r="7" ht="103.5" customHeight="1">
+    <row r="7" ht="40.5" customHeight="1">
       <c r="A7" s="81"/>
       <c r="B7" s="84">
         <v>2.0</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
+      <c r="C7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>33</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" s="81"/>
       <c r="G7" s="81"/>
@@ -29800,14 +29855,18 @@
       <c r="T7" s="81"/>
       <c r="U7" s="81"/>
     </row>
-    <row r="8" ht="60.75" customHeight="1">
+    <row r="8" ht="40.5" customHeight="1">
       <c r="A8" s="81"/>
       <c r="B8" s="84">
         <v>3.0</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="22"/>
+      <c r="C8" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="9"/>
       <c r="F8" s="81"/>
       <c r="G8" s="81"/>
       <c r="H8" s="81"/>
@@ -29827,9 +29886,9 @@
     </row>
     <row r="9" ht="18.75" customHeight="1">
       <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
@@ -29850,9 +29909,11 @@
     </row>
     <row r="10" ht="18.75" customHeight="1">
       <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
@@ -29873,9 +29934,9 @@
     </row>
     <row r="11" ht="18.75" customHeight="1">
       <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
@@ -29896,9 +29957,11 @@
     </row>
     <row r="12" ht="18.75" customHeight="1">
       <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="86"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
@@ -29919,9 +29982,11 @@
     </row>
     <row r="13" ht="18.75" customHeight="1">
       <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="86"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
@@ -29943,7 +30008,9 @@
     <row r="14" ht="18.75" customHeight="1">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+      <c r="C14" s="89" t="s">
+        <v>127</v>
+      </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
@@ -29989,7 +30056,9 @@
     <row r="16" ht="18.75" customHeight="1">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="C16" s="88" t="s">
+        <v>128</v>
+      </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -30012,7 +30081,9 @@
     <row r="17" ht="18.75" customHeight="1">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="C17" s="89" t="s">
+        <v>129</v>
+      </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -30035,8 +30106,9 @@
     <row r="18" ht="18.75" customHeight="1">
       <c r="A18" s="81"/>
       <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
+      <c r="C18" s="89" t="s">
+        <v>130</v>
+      </c>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="81"/>
@@ -30058,8 +30130,6 @@
     <row r="19" ht="18.75" customHeight="1">
       <c r="A19" s="81"/>
       <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
       <c r="E19" s="81"/>
       <c r="F19" s="81"/>
       <c r="G19" s="81"/>
@@ -30081,8 +30151,6 @@
     <row r="20" ht="18.75" customHeight="1">
       <c r="A20" s="81"/>
       <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
       <c r="E20" s="81"/>
       <c r="F20" s="81"/>
       <c r="G20" s="81"/>
@@ -30104,8 +30172,6 @@
     <row r="21" ht="18.75" customHeight="1">
       <c r="A21" s="81"/>
       <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="81"/>
@@ -30127,8 +30193,6 @@
     <row r="22" ht="18.75" customHeight="1">
       <c r="A22" s="81"/>
       <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
       <c r="E22" s="81"/>
       <c r="F22" s="81"/>
       <c r="G22" s="81"/>
@@ -30150,8 +30214,6 @@
     <row r="23" ht="18.75" customHeight="1">
       <c r="A23" s="81"/>
       <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
       <c r="E23" s="81"/>
       <c r="F23" s="81"/>
       <c r="G23" s="81"/>
@@ -30173,8 +30235,6 @@
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="81"/>
       <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
       <c r="E24" s="81"/>
       <c r="F24" s="81"/>
       <c r="G24" s="81"/>
@@ -30196,7 +30256,9 @@
     <row r="25" ht="18.75" customHeight="1">
       <c r="A25" s="81"/>
       <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
+      <c r="C25" s="89" t="s">
+        <v>131</v>
+      </c>
       <c r="D25" s="81"/>
       <c r="E25" s="81"/>
       <c r="F25" s="81"/>
@@ -30219,7 +30281,7 @@
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="81"/>
       <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="81"/>
       <c r="E26" s="81"/>
       <c r="F26" s="81"/>
@@ -30242,7 +30304,9 @@
     <row r="27" ht="18.75" customHeight="1">
       <c r="A27" s="81"/>
       <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
+      <c r="C27" s="88" t="s">
+        <v>132</v>
+      </c>
       <c r="D27" s="81"/>
       <c r="E27" s="81"/>
       <c r="F27" s="81"/>
@@ -30265,7 +30329,9 @@
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="81"/>
       <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
+      <c r="C28" s="89" t="s">
+        <v>133</v>
+      </c>
       <c r="D28" s="81"/>
       <c r="E28" s="81"/>
       <c r="F28" s="81"/>
@@ -51307,13 +51373,198 @@
       <c r="T942" s="81"/>
       <c r="U942" s="81"/>
     </row>
+    <row r="943" ht="18.75" customHeight="1">
+      <c r="A943" s="81"/>
+      <c r="B943" s="81"/>
+      <c r="C943" s="81"/>
+      <c r="D943" s="81"/>
+      <c r="E943" s="81"/>
+      <c r="F943" s="81"/>
+      <c r="G943" s="81"/>
+      <c r="H943" s="81"/>
+      <c r="I943" s="81"/>
+      <c r="J943" s="81"/>
+      <c r="K943" s="81"/>
+      <c r="L943" s="81"/>
+      <c r="M943" s="81"/>
+      <c r="N943" s="81"/>
+      <c r="O943" s="81"/>
+      <c r="P943" s="81"/>
+      <c r="Q943" s="81"/>
+      <c r="R943" s="81"/>
+      <c r="S943" s="81"/>
+      <c r="T943" s="81"/>
+      <c r="U943" s="81"/>
+    </row>
+    <row r="944" ht="18.75" customHeight="1">
+      <c r="A944" s="81"/>
+      <c r="B944" s="81"/>
+      <c r="C944" s="81"/>
+      <c r="D944" s="81"/>
+      <c r="E944" s="81"/>
+      <c r="F944" s="81"/>
+      <c r="G944" s="81"/>
+      <c r="H944" s="81"/>
+      <c r="I944" s="81"/>
+      <c r="J944" s="81"/>
+      <c r="K944" s="81"/>
+      <c r="L944" s="81"/>
+      <c r="M944" s="81"/>
+      <c r="N944" s="81"/>
+      <c r="O944" s="81"/>
+      <c r="P944" s="81"/>
+      <c r="Q944" s="81"/>
+      <c r="R944" s="81"/>
+      <c r="S944" s="81"/>
+      <c r="T944" s="81"/>
+      <c r="U944" s="81"/>
+    </row>
+    <row r="945" ht="18.75" customHeight="1">
+      <c r="A945" s="81"/>
+      <c r="B945" s="81"/>
+      <c r="C945" s="81"/>
+      <c r="D945" s="81"/>
+      <c r="E945" s="81"/>
+      <c r="F945" s="81"/>
+      <c r="G945" s="81"/>
+      <c r="H945" s="81"/>
+      <c r="I945" s="81"/>
+      <c r="J945" s="81"/>
+      <c r="K945" s="81"/>
+      <c r="L945" s="81"/>
+      <c r="M945" s="81"/>
+      <c r="N945" s="81"/>
+      <c r="O945" s="81"/>
+      <c r="P945" s="81"/>
+      <c r="Q945" s="81"/>
+      <c r="R945" s="81"/>
+      <c r="S945" s="81"/>
+      <c r="T945" s="81"/>
+      <c r="U945" s="81"/>
+    </row>
+    <row r="946" ht="18.75" customHeight="1">
+      <c r="A946" s="81"/>
+      <c r="B946" s="81"/>
+      <c r="C946" s="81"/>
+      <c r="D946" s="81"/>
+      <c r="E946" s="81"/>
+      <c r="F946" s="81"/>
+      <c r="G946" s="81"/>
+      <c r="H946" s="81"/>
+      <c r="I946" s="81"/>
+      <c r="J946" s="81"/>
+      <c r="K946" s="81"/>
+      <c r="L946" s="81"/>
+      <c r="M946" s="81"/>
+      <c r="N946" s="81"/>
+      <c r="O946" s="81"/>
+      <c r="P946" s="81"/>
+      <c r="Q946" s="81"/>
+      <c r="R946" s="81"/>
+      <c r="S946" s="81"/>
+      <c r="T946" s="81"/>
+      <c r="U946" s="81"/>
+    </row>
+    <row r="947" ht="18.75" customHeight="1">
+      <c r="A947" s="81"/>
+      <c r="B947" s="81"/>
+      <c r="C947" s="81"/>
+      <c r="D947" s="81"/>
+      <c r="E947" s="81"/>
+      <c r="F947" s="81"/>
+      <c r="G947" s="81"/>
+      <c r="H947" s="81"/>
+      <c r="I947" s="81"/>
+      <c r="J947" s="81"/>
+      <c r="K947" s="81"/>
+      <c r="L947" s="81"/>
+      <c r="M947" s="81"/>
+      <c r="N947" s="81"/>
+      <c r="O947" s="81"/>
+      <c r="P947" s="81"/>
+      <c r="Q947" s="81"/>
+      <c r="R947" s="81"/>
+      <c r="S947" s="81"/>
+      <c r="T947" s="81"/>
+      <c r="U947" s="81"/>
+    </row>
+    <row r="948" ht="18.75" customHeight="1">
+      <c r="A948" s="81"/>
+      <c r="B948" s="81"/>
+      <c r="C948" s="81"/>
+      <c r="D948" s="81"/>
+      <c r="E948" s="81"/>
+      <c r="F948" s="81"/>
+      <c r="G948" s="81"/>
+      <c r="H948" s="81"/>
+      <c r="I948" s="81"/>
+      <c r="J948" s="81"/>
+      <c r="K948" s="81"/>
+      <c r="L948" s="81"/>
+      <c r="M948" s="81"/>
+      <c r="N948" s="81"/>
+      <c r="O948" s="81"/>
+      <c r="P948" s="81"/>
+      <c r="Q948" s="81"/>
+      <c r="R948" s="81"/>
+      <c r="S948" s="81"/>
+      <c r="T948" s="81"/>
+      <c r="U948" s="81"/>
+    </row>
+    <row r="949" ht="18.75" customHeight="1">
+      <c r="A949" s="81"/>
+      <c r="B949" s="81"/>
+      <c r="C949" s="81"/>
+      <c r="D949" s="81"/>
+      <c r="E949" s="81"/>
+      <c r="F949" s="81"/>
+      <c r="G949" s="81"/>
+      <c r="H949" s="81"/>
+      <c r="I949" s="81"/>
+      <c r="J949" s="81"/>
+      <c r="K949" s="81"/>
+      <c r="L949" s="81"/>
+      <c r="M949" s="81"/>
+      <c r="N949" s="81"/>
+      <c r="O949" s="81"/>
+      <c r="P949" s="81"/>
+      <c r="Q949" s="81"/>
+      <c r="R949" s="81"/>
+      <c r="S949" s="81"/>
+      <c r="T949" s="81"/>
+      <c r="U949" s="81"/>
+    </row>
+    <row r="950" ht="18.75" customHeight="1">
+      <c r="A950" s="81"/>
+      <c r="B950" s="81"/>
+      <c r="C950" s="81"/>
+      <c r="D950" s="81"/>
+      <c r="E950" s="81"/>
+      <c r="F950" s="81"/>
+      <c r="G950" s="81"/>
+      <c r="H950" s="81"/>
+      <c r="I950" s="81"/>
+      <c r="J950" s="81"/>
+      <c r="K950" s="81"/>
+      <c r="L950" s="81"/>
+      <c r="M950" s="81"/>
+      <c r="N950" s="81"/>
+      <c r="O950" s="81"/>
+      <c r="P950" s="81"/>
+      <c r="Q950" s="81"/>
+      <c r="R950" s="81"/>
+      <c r="S950" s="81"/>
+      <c r="T950" s="81"/>
+      <c r="U950" s="81"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C18:D24"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -51341,7 +51592,7 @@
       <c r="N2" s="91"/>
       <c r="O2" s="92"/>
       <c r="Q2" s="93" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="R2" s="91"/>
       <c r="S2" s="91"/>
@@ -51351,7 +51602,7 @@
       <c r="L3" s="94"/>
       <c r="O3" s="95"/>
       <c r="Q3" s="96" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="T3" s="95"/>
     </row>
@@ -51365,7 +51616,7 @@
       <c r="L5" s="94"/>
       <c r="O5" s="95"/>
       <c r="Q5" s="97" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
@@ -51383,13 +51634,13 @@
       <c r="L7" s="94"/>
       <c r="O7" s="95"/>
       <c r="Q7" s="101" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="R7" s="102" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="S7" s="103" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="T7" s="100"/>
     </row>
@@ -51403,13 +51654,13 @@
     </row>
     <row r="9">
       <c r="L9" s="104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="22"/>
       <c r="Q9" s="105" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -51417,7 +51668,7 @@
     </row>
     <row r="10">
       <c r="L10" s="96" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="O10" s="95"/>
       <c r="Q10" s="96"/>
@@ -51425,43 +51676,43 @@
     </row>
     <row r="11">
       <c r="L11" s="96" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="O11" s="95"/>
       <c r="Q11" s="96"/>
       <c r="R11" s="102" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="S11" s="106" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="T11" s="100"/>
     </row>
     <row r="12">
       <c r="L12" s="96" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="O12" s="95"/>
       <c r="Q12" s="96"/>
       <c r="R12" s="107" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="S12" s="108" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="T12" s="95"/>
     </row>
     <row r="13">
       <c r="L13" s="96" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O13" s="95"/>
       <c r="Q13" s="96"/>
       <c r="R13" s="102" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="S13" s="106" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="T13" s="100"/>
     </row>
@@ -51470,13 +51721,13 @@
       <c r="O14" s="95"/>
       <c r="Q14" s="96"/>
       <c r="S14" s="108" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="T14" s="95"/>
     </row>
     <row r="15">
       <c r="L15" s="109" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
@@ -51486,11 +51737,11 @@
     </row>
     <row r="16">
       <c r="L16" s="96" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="O16" s="95"/>
       <c r="Q16" s="110" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
@@ -51498,7 +51749,7 @@
     </row>
     <row r="17">
       <c r="L17" s="96" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O17" s="95"/>
       <c r="Q17" s="96"/>
@@ -51506,43 +51757,43 @@
     </row>
     <row r="18">
       <c r="L18" s="96" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O18" s="95"/>
       <c r="Q18" s="96"/>
       <c r="R18" s="102" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="S18" s="106" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="T18" s="100"/>
     </row>
     <row r="19">
       <c r="L19" s="96" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="O19" s="95"/>
       <c r="Q19" s="96"/>
       <c r="R19" s="107" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="S19" s="108" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="T19" s="95"/>
     </row>
     <row r="20">
       <c r="L20" s="96" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O20" s="95"/>
       <c r="Q20" s="96"/>
       <c r="R20" s="102" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="S20" s="106" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="T20" s="100"/>
     </row>
@@ -51551,13 +51802,13 @@
       <c r="O21" s="95"/>
       <c r="Q21" s="96"/>
       <c r="S21" s="108" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="T21" s="95"/>
     </row>
     <row r="22">
       <c r="L22" s="111" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M22" s="21"/>
       <c r="N22" s="21"/>
@@ -51567,11 +51818,11 @@
     </row>
     <row r="23">
       <c r="L23" s="96" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O23" s="95"/>
       <c r="Q23" s="112" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="R23" s="113"/>
       <c r="S23" s="113"/>
@@ -51579,7 +51830,7 @@
     </row>
     <row r="24">
       <c r="L24" s="96" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O24" s="95"/>
       <c r="Q24" s="90"/>
@@ -51589,7 +51840,7 @@
     </row>
     <row r="25">
       <c r="L25" s="96" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="O25" s="95"/>
       <c r="Q25" s="94"/>
@@ -51601,7 +51852,7 @@
     </row>
     <row r="26">
       <c r="L26" s="96" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O26" s="95"/>
       <c r="Q26" s="94"/>
@@ -51617,21 +51868,21 @@
     </row>
     <row r="28">
       <c r="L28" s="116" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M28" s="21"/>
       <c r="N28" s="21"/>
       <c r="O28" s="22"/>
       <c r="Q28" s="94"/>
       <c r="R28" s="117" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="S28" s="3"/>
       <c r="T28" s="95"/>
     </row>
     <row r="29">
       <c r="L29" s="96" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="O29" s="95"/>
       <c r="Q29" s="94"/>
@@ -51641,7 +51892,7 @@
     </row>
     <row r="30">
       <c r="L30" s="96" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="O30" s="95"/>
       <c r="Q30" s="94"/>
